--- a/data/Cross section properties.xlsx
+++ b/data/Cross section properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IITM\github\Swimminpoollift\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B42D49-E312-47B4-A9D3-734A32EDEDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2BD0A6-346E-4BCA-9D16-F100E85A0DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-15945" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="M292" sqref="M292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10904,7 +10904,7 @@
         <v>13.6</v>
       </c>
       <c r="H255" s="1">
-        <v>13.6</v>
+        <v>17.3</v>
       </c>
       <c r="I255" s="1">
         <v>325.3</v>
@@ -10942,7 +10942,7 @@
         <v>14.5</v>
       </c>
       <c r="H256" s="1">
-        <v>14.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I256" s="1">
         <v>344.58</v>
@@ -10980,7 +10980,7 @@
         <v>16.2</v>
       </c>
       <c r="H257" s="1">
-        <v>16.2</v>
+        <v>20.6</v>
       </c>
       <c r="I257" s="1">
         <v>382</v>

--- a/data/Cross section properties.xlsx
+++ b/data/Cross section properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IITM\github\Swimminpoollift\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B42D49-E312-47B4-A9D3-734A32EDEDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DBA390-A541-4C42-920B-DD0B4703AD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-15945" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,12 +57,6 @@
     <t>Iy</t>
   </si>
   <si>
-    <t>rx</t>
-  </si>
-  <si>
-    <t>ry</t>
-  </si>
-  <si>
     <t>ISLB 75</t>
   </si>
   <si>
@@ -612,9 +606,6 @@
     <t>113.5 X 113.5 X 4.8</t>
   </si>
   <si>
-    <t>113.5 X 1133 X 5.4</t>
-  </si>
-  <si>
     <t>113.5 X 113.5 X 6</t>
   </si>
   <si>
@@ -880,6 +871,15 @@
   </si>
   <si>
     <t>350H</t>
+  </si>
+  <si>
+    <t>113.5 X 113.5 X 5.4</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="N191" sqref="N191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1261,18 +1261,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>75</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>125</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>175</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>225</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>250</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>275</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>300</v>
@@ -1649,10 +1649,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>325</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>350</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>400</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>450</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>500</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>550</v>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>600</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
         <v>125</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>175</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>200</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
         <v>225</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>250</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>300</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
         <v>350</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1">
         <v>400</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>450</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>500</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>550</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
         <v>600</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1">
         <v>150</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
         <v>175</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1">
         <v>200</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>225</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
         <v>150</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2">
         <v>175</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
         <v>200</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2">
         <v>225</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
         <v>250</v>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
         <v>300</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
         <v>350</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2">
         <v>400</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
         <v>450</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2">
         <v>500</v>
@@ -2979,10 +2979,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
         <v>550</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2">
         <v>600</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>600</v>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1">
         <v>100</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1">
         <v>175</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1">
         <v>220</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1">
         <v>300</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2">
         <v>203</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55" s="2">
         <v>100</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" s="2">
         <v>120</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2">
         <v>140</v>
@@ -3397,10 +3397,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2">
         <v>152</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2">
         <v>160</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" s="2">
         <v>180</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C61" s="2">
         <v>200</v>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
         <v>220</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
         <v>250</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2">
         <v>150</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2">
         <v>150</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2">
         <v>150</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2">
         <v>200</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68" s="2">
         <v>200</v>
@@ -3815,10 +3815,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2">
         <v>225</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
         <v>225</v>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
         <v>250</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2">
         <v>250</v>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2">
         <v>300</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2">
         <v>300</v>
@@ -4043,10 +4043,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
         <v>350</v>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2">
         <v>350</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2">
         <v>400</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
         <v>400</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" s="2">
         <v>450</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2">
         <v>450</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C81" s="1">
         <v>75</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C82" s="1">
         <v>100</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C83" s="1">
         <v>125</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1">
         <v>125</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1">
         <v>150</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1">
         <v>150</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1">
         <v>175</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
         <v>175</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
         <v>200</v>
@@ -4613,10 +4613,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1">
         <v>200</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>225</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1">
         <v>225</v>
@@ -4727,10 +4727,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1">
         <v>250</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1">
         <v>250</v>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C95" s="1">
         <v>250</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C96" s="1">
         <v>300</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C97" s="1">
         <v>300</v>
@@ -4917,10 +4917,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98" s="1">
         <v>300</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C99" s="1">
         <v>350</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C100" s="1">
         <v>400</v>
@@ -5031,10 +5031,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C101" s="1">
         <v>100</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C102" s="1">
         <v>125</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C103" s="1">
         <v>150</v>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C104" s="1">
         <v>175</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C105" s="1">
         <v>200</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C106" s="1">
         <v>75</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C107" s="1">
         <v>100</v>
@@ -5297,10 +5297,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C108" s="1">
         <v>125</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C109" s="1">
         <v>125</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C110" s="1">
         <v>150</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C111" s="1">
         <v>150</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C112" s="1">
         <v>175</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C113" s="1">
         <v>200</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C114" s="1">
         <v>200</v>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C115" s="1">
         <v>225</v>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C116" s="1">
         <v>250</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C117" s="1">
         <v>300</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C118" s="1">
         <v>300</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C119" s="1">
         <v>350</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C120" s="1">
         <v>400</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C121" s="1">
         <v>75</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C122" s="1">
         <v>100</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C123" s="1">
         <v>125</v>
@@ -5905,10 +5905,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C124" s="1">
         <v>125</v>
@@ -5943,10 +5943,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C125" s="1">
         <v>150</v>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C126" s="1">
         <v>150</v>
@@ -6019,10 +6019,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C127" s="1">
         <v>175</v>
@@ -6057,10 +6057,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C128" s="1">
         <v>175</v>
@@ -6095,10 +6095,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C129" s="1">
         <v>200</v>
@@ -6133,10 +6133,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C130" s="1">
         <v>200</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C131" s="1">
         <v>225</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C132" s="1">
         <v>225</v>
@@ -6247,10 +6247,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C133" s="1">
         <v>250</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C134" s="1">
         <v>250</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C135" s="1">
         <v>250</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C136" s="1">
         <v>300</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C137" s="1">
         <v>300</v>
@@ -6437,10 +6437,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C138" s="1">
         <v>300</v>
@@ -6475,10 +6475,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C139" s="1">
         <v>350</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C140" s="1">
         <v>400</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>3</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>3</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>3</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>3</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>3</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>3</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>3</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>3</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>3</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>3</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>3</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>3</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>3</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>3</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>3</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>3</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>3</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>3</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>3</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>3</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>3</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>3</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>3</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>3</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>3</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>3</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>3</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>3</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>3</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>3</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>3</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>3</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>3</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>3</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>3</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>3</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>3</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>3</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>3</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>3</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3</v>
@@ -8384,7 +8384,7 @@
         <v>113.5</v>
       </c>
       <c r="D189" s="2">
-        <v>1133</v>
+        <v>113.5</v>
       </c>
       <c r="E189" s="2">
         <v>5.4</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>3</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>3</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>3</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>3</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>3</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>3</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>3</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>3</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>3</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>3</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>3</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>3</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>3</v>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>3</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>3</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>3</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>3</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>3</v>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>3</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>3</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>3</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>3</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>3</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>3</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>3</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>3</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>3</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>3</v>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>3</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>3</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C225" s="1">
         <v>21.3</v>
@@ -9781,10 +9781,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C226" s="1">
         <v>21.3</v>
@@ -9819,10 +9819,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C227" s="1">
         <v>21.3</v>
@@ -9857,10 +9857,10 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C228" s="1">
         <v>26.9</v>
@@ -9895,10 +9895,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C229" s="1">
         <v>26.9</v>
@@ -9933,10 +9933,10 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C230" s="1">
         <v>26.9</v>
@@ -9971,10 +9971,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C231" s="1">
         <v>33.700000000000003</v>
@@ -10009,10 +10009,10 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C232" s="1">
         <v>33.700000000000003</v>
@@ -10047,10 +10047,10 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C233" s="1">
         <v>33.700000000000003</v>
@@ -10085,10 +10085,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C234" s="1">
         <v>42.4</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C235" s="1">
         <v>42.4</v>
@@ -10161,10 +10161,10 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C236" s="1">
         <v>42.4</v>
@@ -10199,10 +10199,10 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C237" s="1">
         <v>48.3</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C238" s="1">
         <v>48.3</v>
@@ -10275,10 +10275,10 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C239" s="1">
         <v>48.3</v>
@@ -10313,10 +10313,10 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C240" s="1">
         <v>60.3</v>
@@ -10351,10 +10351,10 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C241" s="1">
         <v>60.3</v>
@@ -10389,10 +10389,10 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C242" s="1">
         <v>60.3</v>
@@ -10427,10 +10427,10 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C243" s="1">
         <v>76.099999999999994</v>
@@ -10465,10 +10465,10 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C244" s="1">
         <v>76.099999999999994</v>
@@ -10503,10 +10503,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C245" s="1">
         <v>76.099999999999994</v>
@@ -10541,10 +10541,10 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C246" s="1">
         <v>88.9</v>
@@ -10579,10 +10579,10 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C247" s="1">
         <v>88.9</v>
@@ -10617,10 +10617,10 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C248" s="1">
         <v>88.9</v>
@@ -10655,10 +10655,10 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C249" s="1">
         <v>101.6</v>
@@ -10693,10 +10693,10 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C250" s="1">
         <v>101.6</v>
@@ -10731,10 +10731,10 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C251" s="1">
         <v>101.6</v>
@@ -10769,10 +10769,10 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C252" s="1">
         <v>114.3</v>
@@ -10807,10 +10807,10 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C253" s="1">
         <v>114.3</v>
@@ -10845,10 +10845,10 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C254" s="1">
         <v>114.3</v>
@@ -10883,10 +10883,10 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C255" s="1">
         <v>127</v>
@@ -10904,7 +10904,7 @@
         <v>13.6</v>
       </c>
       <c r="H255" s="1">
-        <v>13.6</v>
+        <v>17.3</v>
       </c>
       <c r="I255" s="1">
         <v>325.3</v>
@@ -10921,10 +10921,10 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C256" s="1">
         <v>127</v>
@@ -10942,7 +10942,7 @@
         <v>14.5</v>
       </c>
       <c r="H256" s="1">
-        <v>14.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I256" s="1">
         <v>344.58</v>
@@ -10959,10 +10959,10 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C257" s="1">
         <v>127</v>
@@ -10980,7 +10980,7 @@
         <v>16.2</v>
       </c>
       <c r="H257" s="1">
-        <v>16.2</v>
+        <v>20.6</v>
       </c>
       <c r="I257" s="1">
         <v>382</v>
@@ -10997,10 +10997,10 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C258" s="1">
         <v>139.69999999999999</v>
@@ -11035,10 +11035,10 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C259" s="1">
         <v>139.69999999999999</v>
@@ -11073,10 +11073,10 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C260" s="1">
         <v>139.69999999999999</v>
@@ -11111,10 +11111,10 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C261" s="1">
         <v>152.4</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C262" s="1">
         <v>152.4</v>
@@ -11187,10 +11187,10 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C263" s="1">
         <v>152.4</v>
@@ -11225,10 +11225,10 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C264" s="1">
         <v>168.3</v>
@@ -11263,10 +11263,10 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C265" s="1">
         <v>168.3</v>
@@ -11301,10 +11301,10 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C266" s="1">
         <v>168.3</v>
@@ -11339,10 +11339,10 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C267" s="1">
         <v>168.3</v>
@@ -11377,10 +11377,10 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C268" s="1">
         <v>193.7</v>
@@ -11415,10 +11415,10 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C269" s="1">
         <v>193.7</v>
@@ -11453,10 +11453,10 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C270" s="1">
         <v>193.7</v>
@@ -11491,10 +11491,10 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C271" s="1">
         <v>219.1</v>
@@ -11529,10 +11529,10 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C272" s="1">
         <v>219.1</v>
@@ -11567,10 +11567,10 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C273" s="1">
         <v>219.1</v>
@@ -11605,10 +11605,10 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C274" s="1">
         <v>244.5</v>
@@ -11643,10 +11643,10 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C275" s="1">
         <v>273</v>
@@ -11681,10 +11681,10 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C276" s="1">
         <v>323.89999999999998</v>
@@ -11719,10 +11719,10 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C277" s="1">
         <v>355.6</v>
